--- a/Documentation/SYD8810_pinmux_table_20200114 155902.xlsx
+++ b/Documentation/SYD8810_pinmux_table_20200114 155902.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SYD8801\SYD8811\SYD8811_SDK_Git_Release\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC7B1C1-C52B-4F38-84DA-746AE017B986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487274DC-47A0-45C5-A6C6-07387EA04CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SYD8811" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="143">
   <si>
     <t>GPIO_Cell</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -545,6 +545,14 @@
   </si>
   <si>
     <t>SEN_SPI_SDO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADCGP_CH[2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADCGP_CH[3]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1620,7 +1628,7 @@
       <pane xSplit="2" ySplit="14" topLeftCell="AH15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="BG23" sqref="BG23"/>
+      <selection pane="bottomRight" activeCell="BE20" sqref="BE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3548,7 +3556,9 @@
       <c r="BH7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="BI7" s="26"/>
+      <c r="BI7" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="BJ7" s="27"/>
     </row>
     <row r="8" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -3732,7 +3742,9 @@
       <c r="BH8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="BI8" s="26"/>
+      <c r="BI8" s="26" t="s">
+        <v>142</v>
+      </c>
       <c r="BJ8" s="27"/>
     </row>
     <row r="9" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
